--- a/replication/temp/figureA1_bac_test_primary.xlsx
+++ b/replication/temp/figureA1_bac_test_primary.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>year</t>
   </si>
@@ -34,7 +34,70 @@
     <t>total_dof</t>
   </si>
   <si>
-    <t>(nan)</t>
+    <t>(0.32)</t>
+  </si>
+  <si>
+    <t>(0.19)</t>
+  </si>
+  <si>
+    <t>(1.62)</t>
+  </si>
+  <si>
+    <t>(0.47)</t>
+  </si>
+  <si>
+    <t>(3.72)</t>
+  </si>
+  <si>
+    <t>(2.03)</t>
+  </si>
+  <si>
+    <t>(2.81)</t>
+  </si>
+  <si>
+    <t>(1.04)</t>
+  </si>
+  <si>
+    <t>(1.45)</t>
+  </si>
+  <si>
+    <t>(0.58)</t>
+  </si>
+  <si>
+    <t>(3.46)</t>
+  </si>
+  <si>
+    <t>(2.85)</t>
+  </si>
+  <si>
+    <t>(2.79)</t>
+  </si>
+  <si>
+    <t>(2.39)</t>
+  </si>
+  <si>
+    <t>(2.56)</t>
+  </si>
+  <si>
+    <t>(1.63)</t>
+  </si>
+  <si>
+    <t>(0.43)</t>
+  </si>
+  <si>
+    <t>(0.52)</t>
+  </si>
+  <si>
+    <t>(3.1)</t>
+  </si>
+  <si>
+    <t>(1.95)</t>
+  </si>
+  <si>
+    <t>(0.23)</t>
+  </si>
+  <si>
+    <t>(0.02)</t>
   </si>
 </sst>
 </file>
@@ -517,34 +580,34 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="G4" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="H4" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="I4" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="J4" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="K4" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="L4" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -590,37 +653,37 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="G6" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="H6" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="I6" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="J6" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="K6" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="L6" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:12">

--- a/replication/temp/figureA1_bac_test_primary.xlsx
+++ b/replication/temp/figureA1_bac_test_primary.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
   <si>
     <t>year</t>
   </si>
@@ -34,70 +34,64 @@
     <t>total_dof</t>
   </si>
   <si>
-    <t>(0.32)</t>
-  </si>
-  <si>
-    <t>(0.19)</t>
-  </si>
-  <si>
-    <t>(1.62)</t>
-  </si>
-  <si>
-    <t>(0.47)</t>
-  </si>
-  <si>
-    <t>(3.72)</t>
-  </si>
-  <si>
-    <t>(2.03)</t>
-  </si>
-  <si>
-    <t>(2.81)</t>
-  </si>
-  <si>
-    <t>(1.04)</t>
-  </si>
-  <si>
-    <t>(1.45)</t>
-  </si>
-  <si>
-    <t>(0.58)</t>
-  </si>
-  <si>
-    <t>(3.46)</t>
-  </si>
-  <si>
-    <t>(2.85)</t>
+    <t>(0.15)</t>
+  </si>
+  <si>
+    <t>(0.08)</t>
+  </si>
+  <si>
+    <t>(0.33)</t>
+  </si>
+  <si>
+    <t>(0.05)</t>
   </si>
   <si>
     <t>(2.79)</t>
   </si>
   <si>
-    <t>(2.39)</t>
-  </si>
-  <si>
-    <t>(2.56)</t>
-  </si>
-  <si>
-    <t>(1.63)</t>
-  </si>
-  <si>
-    <t>(0.43)</t>
+    <t>(1.81)</t>
+  </si>
+  <si>
+    <t>(0.06)</t>
+  </si>
+  <si>
+    <t>(0.51)</t>
+  </si>
+  <si>
+    <t>(0.13)</t>
+  </si>
+  <si>
+    <t>(0.5)</t>
+  </si>
+  <si>
+    <t>(0.38)</t>
+  </si>
+  <si>
+    <t>(0.77)</t>
+  </si>
+  <si>
+    <t>(1.01)</t>
+  </si>
+  <si>
+    <t>(0.85)</t>
+  </si>
+  <si>
+    <t>(0.07)</t>
+  </si>
+  <si>
+    <t>(1.3)</t>
+  </si>
+  <si>
+    <t>(0.97)</t>
   </si>
   <si>
     <t>(0.52)</t>
   </si>
   <si>
-    <t>(3.1)</t>
-  </si>
-  <si>
-    <t>(1.95)</t>
-  </si>
-  <si>
-    <t>(0.23)</t>
-  </si>
-  <si>
-    <t>(0.02)</t>
+    <t>(1.61)</t>
+  </si>
+  <si>
+    <t>(1.74)</t>
   </si>
 </sst>
 </file>
@@ -595,19 +589,19 @@
         <v>16</v>
       </c>
       <c r="H4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" t="s">
         <v>18</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>20</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>22</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>24</v>
-      </c>
-      <c r="L4" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -671,19 +665,19 @@
         <v>17</v>
       </c>
       <c r="H6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" t="s">
         <v>19</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>21</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>23</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>25</v>
-      </c>
-      <c r="L6" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:12">
